--- a/Extensive/AllConversationTest.xlsx
+++ b/Extensive/AllConversationTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Smart Home (IoT)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="989">
   <si>
     <t>Category</t>
   </si>
@@ -407,9 +407,6 @@
     <t>Five Little Monkeys Numbers Song</t>
   </si>
   <si>
-    <t>Forever Country</t>
-  </si>
-  <si>
     <t>Fortunate Son</t>
   </si>
   <si>
@@ -485,9 +482,6 @@
     <t>Mary Had a Little Lamb</t>
   </si>
   <si>
-    <t>May We All</t>
-  </si>
-  <si>
     <t>Move</t>
   </si>
   <si>
@@ -497,9 +491,6 @@
     <t>Nijikan Dake No Vacance</t>
   </si>
   <si>
-    <t>One Dance</t>
-  </si>
-  <si>
     <t>One Two Buckle My Shoe</t>
   </si>
   <si>
@@ -509,9 +500,6 @@
     <t>Reckoner</t>
   </si>
   <si>
-    <t>Red Solo Cup</t>
-  </si>
-  <si>
     <t>Rise Up</t>
   </si>
   <si>
@@ -683,9 +671,6 @@
     <t>play Five Little Monkeys Numbers Song</t>
   </si>
   <si>
-    <t>play Forever Country</t>
-  </si>
-  <si>
     <t>play Fortunate Son</t>
   </si>
   <si>
@@ -761,9 +746,6 @@
     <t>play Mary Had a Little Lamb</t>
   </si>
   <si>
-    <t>play May We All</t>
-  </si>
-  <si>
     <t>play Move</t>
   </si>
   <si>
@@ -773,9 +755,6 @@
     <t>play Nijikan Dake No Vacance</t>
   </si>
   <si>
-    <t>play One Dance</t>
-  </si>
-  <si>
     <t>play One Two Buckle My Shoe</t>
   </si>
   <si>
@@ -783,9 +762,6 @@
   </si>
   <si>
     <t>play Reckoner</t>
-  </si>
-  <si>
-    <t>play Red Solo Cup</t>
   </si>
   <si>
     <t>play Rise Up</t>
@@ -4200,7 +4176,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4332,10 +4308,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4364,7 +4340,7 @@
         <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4375,7 +4351,7 @@
         <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4386,7 +4362,7 @@
         <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4397,7 +4373,7 @@
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4408,7 +4384,7 @@
         <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4419,7 +4395,7 @@
         <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4430,7 +4406,7 @@
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4441,7 +4417,7 @@
         <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4452,7 +4428,7 @@
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4463,7 +4439,7 @@
         <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4474,7 +4450,7 @@
         <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4485,7 +4461,7 @@
         <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4496,7 +4472,7 @@
         <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4507,7 +4483,7 @@
         <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4518,7 +4494,7 @@
         <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4529,7 +4505,7 @@
         <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4540,7 +4516,7 @@
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4551,7 +4527,7 @@
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4562,7 +4538,7 @@
         <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4573,7 +4549,7 @@
         <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4584,7 +4560,7 @@
         <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4595,7 +4571,7 @@
         <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4606,7 +4582,7 @@
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4617,7 +4593,7 @@
         <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4628,7 +4604,7 @@
         <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4639,7 +4615,7 @@
         <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4650,7 +4626,7 @@
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4661,18 +4637,18 @@
         <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>218</v>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4683,7 +4659,7 @@
         <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4694,7 +4670,7 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4705,7 +4681,7 @@
         <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4716,7 +4692,7 @@
         <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4727,7 +4703,7 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4738,7 +4714,7 @@
         <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4749,7 +4725,7 @@
         <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4760,7 +4736,7 @@
         <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4771,7 +4747,7 @@
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4782,29 +4758,29 @@
         <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" t="s">
-        <v>229</v>
+      <c r="B41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>138</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>230</v>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4815,7 +4791,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4826,7 +4802,7 @@
         <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4837,7 +4813,7 @@
         <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4848,7 +4824,7 @@
         <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4859,7 +4835,7 @@
         <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4870,7 +4846,7 @@
         <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4881,7 +4857,7 @@
         <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4892,7 +4868,7 @@
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4903,7 +4879,7 @@
         <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4914,7 +4890,7 @@
         <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4925,7 +4901,7 @@
         <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4936,7 +4912,7 @@
         <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4947,7 +4923,7 @@
         <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4958,7 +4934,7 @@
         <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4969,7 +4945,7 @@
         <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4980,7 +4956,7 @@
         <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4991,18 +4967,18 @@
         <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="2" t="s">
+      <c r="A60" t="s">
         <v>156</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>248</v>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5013,7 +4989,7 @@
         <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5024,7 +5000,7 @@
         <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5035,7 +5011,7 @@
         <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5046,7 +5022,7 @@
         <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5057,7 +5033,7 @@
         <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5068,7 +5044,7 @@
         <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5079,7 +5055,7 @@
         <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5090,7 +5066,7 @@
         <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5101,7 +5077,7 @@
         <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5112,7 +5088,7 @@
         <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5123,7 +5099,7 @@
         <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5134,7 +5110,7 @@
         <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5145,7 +5121,7 @@
         <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5156,7 +5132,7 @@
         <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5167,7 +5143,7 @@
         <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5178,7 +5154,7 @@
         <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5189,7 +5165,7 @@
         <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5200,7 +5176,7 @@
         <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5211,7 +5187,7 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5222,7 +5198,7 @@
         <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5233,7 +5209,7 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5244,7 +5220,7 @@
         <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -5255,7 +5231,7 @@
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5266,7 +5242,7 @@
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5277,7 +5253,7 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5288,7 +5264,7 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5299,7 +5275,7 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5310,7 +5286,7 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5321,51 +5297,7 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>186</v>
-      </c>
-      <c r="B90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>187</v>
-      </c>
-      <c r="B91" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>188</v>
-      </c>
-      <c r="B92" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>189</v>
-      </c>
-      <c r="B93" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5383,7 +5315,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5406,794 +5338,794 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
         <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
         <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B13" t="s">
         <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B14" t="s">
         <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B15" t="s">
         <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B17" t="s">
         <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B18" t="s">
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
         <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s">
         <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s">
         <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B24" t="s">
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s">
         <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B26" t="s">
         <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s">
         <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s">
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s">
         <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s">
         <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s">
         <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s">
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s">
         <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s">
         <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s">
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s">
         <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s">
         <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s">
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s">
         <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s">
         <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s">
         <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s">
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s">
         <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s">
         <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B47" t="s">
         <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B48" t="s">
         <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s">
         <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B50" t="s">
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s">
         <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B52" t="s">
         <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B53" t="s">
         <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B54" t="s">
         <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B55" t="s">
         <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B56" t="s">
         <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B57" t="s">
         <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B58" t="s">
         <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B59" t="s">
         <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B60" t="s">
         <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B61" t="s">
         <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B62" t="s">
         <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B63" t="s">
         <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B64" t="s">
         <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s">
         <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s">
         <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B67" t="s">
         <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B68" t="s">
         <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s">
         <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B70" t="s">
         <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s">
         <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B72" t="s">
         <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s">
         <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -6210,8 +6142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6222,7 +6154,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23">
       <c r="A1" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -6233,541 +6165,541 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C5" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B6" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C6" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B14" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C14" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B16" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C16" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B17" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C17" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B18" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C18" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B19" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C19" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B20" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C20" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="4" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -6796,7 +6728,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23">
       <c r="A1" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -6807,2840 +6739,2840 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="5" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="5" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="5" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="5" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="5" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="5" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="5" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="5" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="5" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="5" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="5" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="5" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="5" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="5" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="5" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="5" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="5" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="5" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="5" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="5" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="5" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="5" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="3" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B106" t="s">
         <v>88</v>
       </c>
       <c r="C106" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B107" t="s">
         <v>88</v>
       </c>
       <c r="C107" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="3" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B109" t="s">
         <v>88</v>
       </c>
       <c r="C109" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B111" t="s">
         <v>88</v>
       </c>
       <c r="C111" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B112" t="s">
         <v>88</v>
       </c>
       <c r="C112" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B113" t="s">
         <v>88</v>
       </c>
       <c r="C113" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B114" t="s">
         <v>88</v>
       </c>
       <c r="C114" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B115" t="s">
         <v>88</v>
       </c>
       <c r="C115" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B159" t="s">
         <v>88</v>
       </c>
       <c r="C159" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>613</v>
-      </c>
       <c r="C173" s="2" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>610</v>
-      </c>
       <c r="C212" s="2" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="2" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>608</v>
-      </c>
       <c r="C224" s="3" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="2" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B244" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B244" s="3" t="s">
-        <v>614</v>
-      </c>
       <c r="C244" s="3" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>615</v>
-      </c>
       <c r="C259" s="2" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -9670,10 +9602,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23">
       <c r="A1" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -9681,387 +9613,387 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="C2" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="C3" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
+        <v>868</v>
+      </c>
+      <c r="C4" t="s">
         <v>876</v>
-      </c>
-      <c r="C4" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="C5" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B6" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="C6" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B7" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="C7" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="C8" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="C9" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -10078,7 +10010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
@@ -10086,10 +10018,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23">
       <c r="A1" s="12" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>2</v>
@@ -10097,1003 +10029,1003 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="14" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="14" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="14" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="14" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="14" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="14" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="14" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="14" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="14" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="13" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -11123,10 +11055,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23">
       <c r="A1" s="6" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -11134,426 +11066,426 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="7" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="7" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="7" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>912</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>912</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="7" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="7" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="7" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="7" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="8" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>912</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="8" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="7" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="7" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="7" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="7" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>912</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>912</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="7" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>912</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="7" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>912</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>912</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>912</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="7" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="7" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>
